--- a/API接口上交文档.xlsx
+++ b/API接口上交文档.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760"/>
+    <workbookView windowHeight="16640"/>
   </bookViews>
   <sheets>
     <sheet name="API接口文档" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>接口分类</t>
   </si>
@@ -35,9 +35,6 @@
     <t>功能描述</t>
   </si>
   <si>
-    <t>请求参数</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
@@ -47,23 +44,8 @@
     <t>创建新的 Elasticsearch 集群容器组</t>
   </si>
   <si>
-    <t>tenant_org_id (string, 必填): 租户组织 ID
-user (string, 必填): 用户 ID
-service_name (string, 必填): 服务名称
-namespace (string, 可选): Kubernetes 命名空间
-replicas (int, 必填): 副本数量
-cpu_request (string): CPU 请求值，如 "1"
-cpu_limit (string): CPU 限制值，如 "2"
-mem_request (string): 内存请求值，如 "2Gi"
-mem_limit (string): 内存限制值，如 "4Gi"
-disk_size (string): 磁盘大小，如 "50Gi"
-gpu_count (int): GPU 数量
-dimension (int): 向量维度
-vector_count (int): 底库向量数
-gitlab_url (string, 可选): GitLab 配置地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、保持租户元数据
+    <t xml:space="preserve">（组织id，用户id，副本数量，cpu，内存，卡，维度，向量维度，扩容数）
+1、保持租户配额信息
 2、拉Dockerfile
 3、创建容器组
 4、更新进程状态
@@ -73,92 +55,76 @@
     <t>删除指定的集群容器组</t>
   </si>
   <si>
-    <t>namespace (string, 必填): 要删除的命名空间</t>
-  </si>
-  <si>
-    <t>删除容器，删除租户容器信息</t>
+    <t>1、删除容器
+2、删除租户容器信息</t>
   </si>
   <si>
     <t>获取所有集群容器组列表</t>
   </si>
   <si>
-    <t>tenant_org_id (string, 必填): 租户组织 ID</t>
-  </si>
-  <si>
-    <t>查询租户容器列表</t>
+    <t>查询租户容器列表（es集群列表）</t>
   </si>
   <si>
     <t>获取指定集群的详细信息</t>
   </si>
   <si>
-    <t>namespace (path, 必填): 集群命名空间</t>
-  </si>
-  <si>
-    <t>租户详情信息</t>
+    <t>租户详情信息（这个集群配置信息组织id，用户id，副本数量，cpu，内存，卡，维度，向量维度，扩容数）</t>
   </si>
   <si>
     <t>重启指定集群的容器</t>
   </si>
   <si>
-    <t>namespace (string, 必填): 要重启的命名空间</t>
-  </si>
-  <si>
     <t>触发自动重启</t>
   </si>
   <si>
     <t>扩缩容集群副本数</t>
   </si>
   <si>
-    <t>namespace (string, 必填): 命名空间
-replicas (int, 必填): 新的副本数量</t>
-  </si>
-  <si>
     <t>包含配额检查</t>
   </si>
   <si>
+    <t>自动扩缩容</t>
+  </si>
+  <si>
+    <t>弹性扩容</t>
+  </si>
+  <si>
+    <t>1、获取集群的扩缩容配置，
+2、更新集群的扩缩容配置</t>
+  </si>
+  <si>
+    <t>弹性缩容</t>
+  </si>
+  <si>
+    <t>1、获取已扩容，
+2、集群缩容，
+3、更新缩容信息</t>
+  </si>
+  <si>
     <t>向量索引</t>
   </si>
   <si>
     <t>创建新的向量索引</t>
   </si>
   <si>
-    <t>namespace (string, 必填): 命名空间
-index_name (string, 必填): 索引名称
-dimension (int, 必填): 向量维度
-metric (string): 距离度量，可选 l2/cosine/dot，默认 l2
-nlist (int): IVF 聚类数量，默认 100
-nprobe (int): IVF 搜索簇数，默认 10</t>
-  </si>
-  <si>
     <t>自动配置 vector 字段类型</t>
   </si>
   <si>
     <t>获取所有向量索引列表</t>
   </si>
   <si>
-    <t>namespace (string, 可选): 过滤命名空间</t>
-  </si>
-  <si>
     <t>从元数据服务查询</t>
   </si>
   <si>
     <t>删除指定的向量索引</t>
   </si>
   <si>
-    <t>namespace (string, 必填): 命名空间
-index_name (string, 必填): 索引名称</t>
-  </si>
-  <si>
     <t>同时删除 ES 索引和元数据</t>
   </si>
   <si>
     <t>训练向量索引的 IVF 模型</t>
   </si>
   <si>
-    <t>field (string, 必填): 向量字段名
-nlist (int, 可选): 聚类数量，默认使用索引配置</t>
-  </si>
-  <si>
     <t>KMeans 聚类训练</t>
   </si>
   <si>
@@ -166,11 +132,6 @@
   </si>
   <si>
     <t>插入单个向量文档</t>
-  </si>
-  <si>
-    <t>title (string): 文档标题
-embedding (array): 向量数组，维度需匹配索引配置
-metadata (object, 可选): 其他元数据字段</t>
   </si>
   <si>
     <t>自动添加向量到 IVF 索引
@@ -181,22 +142,10 @@
     <t>批量插入向量文档</t>
   </si>
   <si>
-    <t>使用 Elasticsearch Bulk API 格式
-每行为 action，下一行为 document</t>
-  </si>
-  <si>
     <t>自动批量添加到 IVF 索引</t>
   </si>
   <si>
     <t>执行近似最近邻向量搜索</t>
-  </si>
-  <si>
-    <t>query.ann.field (string, 必填): 向量字段名
-query.ann.vector (array, 必填): 查询向量
-query.ann.algorithm (string): 算法类型，默认 ivf
-query.ann.nprobe (int): 搜索簇数，默认 10
-query.ann.k (int): 返回结果数，默认 10
-size (int): 返回文档数量</t>
   </si>
   <si>
     <t>IVF 算法实现
@@ -209,12 +158,6 @@
     <t>向量搜索 + 结构化过滤</t>
   </si>
   <si>
-    <t>query.bool.must (array): 必须匹配条件
-  - ann: 向量搜索
-  - term/match: 结构化过滤
-size (int): 返回数量</t>
-  </si>
-  <si>
     <t>向量搜索结果可与其他查询组合</t>
   </si>
   <si>
@@ -233,35 +176,6 @@
     <t>获取容器级别的监控指标</t>
   </si>
   <si>
-    <t>namespace (string, 可选): 过滤命名空间
-container_name (string, 可选): 过滤容器名</t>
-  </si>
-  <si>
-    <t>自动扩缩容</t>
-  </si>
-  <si>
-    <t>获取集群的扩缩容配置</t>
-  </si>
-  <si>
-    <t>冷却期机制
-历史趋势分析
-智能调整算法</t>
-  </si>
-  <si>
-    <t>更新集群的扩缩容配置</t>
-  </si>
-  <si>
-    <t>namespace (path, 必填): 集群命名空间
-enabled (bool): 是否启用
-min_replicas (int): 最小副本数
-max_replicas (int): 最大副本数
-thresholds (object): 阈值配置
-cooldown (object): 冷却期配置</t>
-  </si>
-  <si>
-    <t>自动应用新配置</t>
-  </si>
-  <si>
     <t>元数据</t>
   </si>
   <si>
@@ -274,61 +188,76 @@
     <t>获取租户的资源配额</t>
   </si>
   <si>
-    <t>user (path, 必填): 用户 ID</t>
-  </si>
-  <si>
     <t>配额检查和强制执行</t>
   </si>
   <si>
     <t>获取所有部署状态</t>
   </si>
   <si>
-    <t>namespace (string, 可选): 过滤命名空间
-user (string, 可选): 过滤用户</t>
-  </si>
-  <si>
     <t>实时状态跟踪</t>
   </si>
   <si>
     <t>获取所有租户容器信息</t>
   </si>
   <si>
-    <t>user (string, 可选): 过滤用户
-tenant_org_id (string, 可选): 过滤租户组织</t>
-  </si>
-  <si>
     <t>支持多维度过滤</t>
   </si>
   <si>
     <t>获取部署报告列表</t>
   </si>
   <si>
-    <t>user (string, 可选): 过滤用户
-service_name (string, 可选): 过滤服务</t>
-  </si>
-  <si>
     <t>详细的部署过程记录</t>
   </si>
   <si>
-    <t>IVF 算法</t>
-  </si>
-  <si>
-    <t>获取 IVF 索引的统计信息</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>实时索引统计信息</t>
-  </si>
-  <si>
-    <t>健康检查</t>
-  </si>
-  <si>
-    <t>检查服务健康状态</t>
-  </si>
-  <si>
-    <t>多服务健康检查</t>
+    <t>脚本</t>
+  </si>
+  <si>
+    <t>Elasticsearch Plugin</t>
+  </si>
+  <si>
+    <t>实现向量检索引擎，调用卡做向量计算、
+实现实现 IVF 算法：
+  - nlist（倒排簇数）
+  - nprobe（搜索簇数）
+  - cluster centroids 训练（KMeans）
+  - 倒排表构建（posting lists）
+支持索引构建、索引更新、批量查询</t>
+  </si>
+  <si>
+    <t>docker</t>
+  </si>
+  <si>
+    <t>es容器文件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terraform </t>
+  </si>
+  <si>
+    <t>机器初始化文件</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Helm</t>
+  </si>
+  <si>
+    <t>操作k8s文件</t>
+  </si>
+  <si>
+    <t>创建容器组</t>
+  </si>
+  <si>
+    <t>容器部署流程</t>
+  </si>
+  <si>
+    <t>容器组列表</t>
+  </si>
+  <si>
+    <t>容器组详情</t>
+  </si>
+  <si>
+    <t>容器列表</t>
+  </si>
+  <si>
+    <t>容器监控</t>
   </si>
 </sst>
 </file>
@@ -972,7 +901,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -984,6 +913,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1269,6 +1210,263 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2301875</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905" y="12225020"/>
+          <a:ext cx="3781425" cy="3261360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2371090</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>183515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3852545" y="12327255"/>
+          <a:ext cx="6069330" cy="1245870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2451100</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>39370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="16455390"/>
+          <a:ext cx="3931920" cy="1488440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>84455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3131185</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>67310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4169410" y="16495395"/>
+          <a:ext cx="3131185" cy="1476375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>29845</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>605790</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4199255" y="16540480"/>
+          <a:ext cx="8017510" cy="947420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>151130</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4185285" y="18203545"/>
+          <a:ext cx="7570470" cy="2412365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1527,21 +1725,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="22.4326923076923" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.7692307692308" customWidth="1"/>
-    <col min="3" max="3" width="48.3846153846154" customWidth="1"/>
-    <col min="4" max="4" width="48.3942307692308" customWidth="1"/>
+    <col min="2" max="2" width="40.7019230769231" customWidth="1"/>
+    <col min="3" max="3" width="71.1442307692308" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29" customHeight="1" spans="1:4">
+    <row r="1" ht="29" customHeight="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1551,348 +1748,309 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2" ht="118" spans="1:3">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="236" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" ht="34" spans="1:3">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="34" spans="1:3">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" ht="34" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" ht="118" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="34" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="51" spans="1:3">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" ht="34" spans="1:4">
-      <c r="A10" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" ht="34" spans="1:4">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" ht="68" spans="1:4">
-      <c r="A12" s="4" t="s">
-        <v>36</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" ht="34" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" ht="101" spans="1:4">
-      <c r="A14" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" ht="51" spans="1:3">
+      <c r="A14" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" ht="68" spans="1:4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="4" t="s">
-        <v>49</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" ht="84" spans="1:3">
+      <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>35</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" ht="34" spans="1:4">
-      <c r="A18" s="4"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="B18" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" ht="51" spans="1:4">
-      <c r="A19" s="4" t="s">
-        <v>55</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" ht="101" spans="1:4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>43</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" ht="34" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" ht="34" spans="1:4">
+        <v>49</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" ht="34" spans="1:4">
+        <v>51</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>82</v>
+        <v>53</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" ht="118" spans="1:3">
+      <c r="A26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A26:A29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>